--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_15.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3C749-12F2-425F-8EEA-ACC6615BF63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7363020-A510-4D2B-9C93-893010715B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
     <t>Region de Arica y Parinacota</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>821869.9375</v>
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>660242.1875</v>
@@ -559,7 +559,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>938857.875</v>
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>666582.3125</v>
@@ -611,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <v>831866.5</v>
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <v>709325.875</v>
@@ -663,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>656358.0625</v>
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>611600.9375</v>
@@ -706,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>820419.5</v>
@@ -726,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>659048.25</v>
@@ -746,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <v>864177.4375</v>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13">
         <v>740526.3125</v>
